--- a/Grand Mini ТЕНШ.467883.02/GrandMini_v1_BOX_BOM.xlsx
+++ b/Grand Mini ТЕНШ.467883.02/GrandMini_v1_BOX_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Altium\SM_Project\QUANTUM\Grand Mini ТЕНШ.467883.02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1420E073-9AB0-4F6E-A2CE-633B4CD84F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9D8604-8766-496F-AD9E-38F69A4E25F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{E3EE227E-3332-401A-8586-F085463C8144}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3EE227E-3332-401A-8586-F085463C8144}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Примечание</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Гайка DIN 934 М3</t>
+  </si>
+  <si>
+    <t>https://ozon.ru/t/sx1RV5M</t>
+  </si>
+  <si>
+    <t>Кабель питания, CEE - IEC C13, черный, 1м</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -546,6 +552,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -861,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55A3C22-FB4A-45C2-B432-5B25C2568DE7}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1253,6 +1260,17 @@
         <v>42</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B3"/>
